--- a/AfDD_DDAf_2023_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2023_CntryPaysCodes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AF6AAA-99B0-4E45-919D-41BB9CC4455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51BDC327-4180-4713-A932-CC917903E67B}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_CntryPaysCodes!$A$1:$C$248</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2031,7 +2043,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2106,7 +2118,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2118,7 +2130,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2165,6 +2177,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2200,6 +2229,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2351,7 +2397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E89555-0019-4FEC-8F0D-08FC00B68037}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C248"/>
   <sheetViews>

--- a/AfDD_DDAf_2023_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2023_CntryPaysCodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AF6AAA-99B0-4E45-919D-41BB9CC4455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1DAA7F-D0FC-4A1A-B81B-FEAB51A1884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51BDC327-4180-4713-A932-CC917903E67B}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{FA2A3485-3DA4-44F1-BB44-99B6AF4C0F55}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2397,7 +2399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E89555-0019-4FEC-8F0D-08FC00B68037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B80FA6-AF52-4BBF-9AEB-5E0E444B80AE}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C248"/>
   <sheetViews>

--- a/AfDD_DDAf_2023_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2023_CntryPaysCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1DAA7F-D0FC-4A1A-B81B-FEAB51A1884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C33A667-2FAE-48A2-9C47-ADBB680970D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{FA2A3485-3DA4-44F1-BB44-99B6AF4C0F55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87C158E4-10A5-42A9-AD94-4B77EA5BA889}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -650,10 +650,10 @@
     <t>BHR</t>
   </si>
   <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bahreïn</t>
+    <t>Bahrain*</t>
+  </si>
+  <si>
+    <t>Bahreïn*</t>
   </si>
   <si>
     <t>BHS</t>
@@ -830,7 +830,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CRI</t>
@@ -1526,7 +1526,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>NIC</t>
@@ -1622,10 +1622,10 @@
     <t>PNG</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Papouasie-Nouvelle-Guinée</t>
+    <t>Papua New Guinea*</t>
+  </si>
+  <si>
+    <t>Papouasie-Nouvelle-Guinée*</t>
   </si>
   <si>
     <t>POL</t>
@@ -1775,10 +1775,10 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Soudan du Sud</t>
+    <t>South Sudan*</t>
+  </si>
+  <si>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>STP</t>
@@ -2399,7 +2399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B80FA6-AF52-4BBF-9AEB-5E0E444B80AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA21108-65E2-47D3-A4C0-993084157977}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C248"/>
   <sheetViews>

--- a/AfDD_DDAf_2023_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2023_CntryPaysCodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C33A667-2FAE-48A2-9C47-ADBB680970D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CDA096-9417-4540-B8DD-9CF0D5374527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{87C158E4-10A5-42A9-AD94-4B77EA5BA889}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{DDEE3B53-7304-4F31-BE61-25580D9F3B42}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_CntryPaysCodes!$A$1:$C$248</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2399,20 +2399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA21108-65E2-47D3-A4C0-993084157977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DBB9FB-D483-444E-AAF4-7198F55B9FDE}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>148</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>182</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>196</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>206</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>211</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>214</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>216</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>219</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>222</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>227</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>235</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>237</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>240</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>243</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>246</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>248</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>254</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>257</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>260</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>263</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>265</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>267</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>269</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>272</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>275</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>278</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>280</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>283</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>286</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>289</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>292</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>295</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>298</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>301</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>304</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>307</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>310</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>313</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>316</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>318</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>321</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>323</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>326</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>329</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>331</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>334</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>337</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>340</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>343</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>346</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>349</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>351</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>353</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>355</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>358</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>361</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>364</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>367</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>370</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>373</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>375</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>377</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>380</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>383</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>386</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>389</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>392</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>395</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>397</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>399</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>402</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>405</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>407</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>413</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>416</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>419</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>422</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>424</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>427</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>430</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>432</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>434</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>436</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>439</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>441</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>444</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>447</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>449</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>451</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>453</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>455</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>458</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>461</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>464</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>466</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>469</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>471</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>474</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>477</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>479</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>482</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>485</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>487</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>490</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>493</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>495</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>497</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>499</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>502</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>505</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>508</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>510</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>513</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>515</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>517</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>519</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>522</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>524</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>527</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>530</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>533</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>536</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>538</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>540</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>542</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>545</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>548</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>550</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>553</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>556</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>559</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>562</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>565</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>567</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>569</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>572</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>575</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>578</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>581</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>584</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>586</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>589</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>592</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>595</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>597</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>599</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>602</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>605</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>607</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>610</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>613</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>616</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>618</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>620</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>623</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>626</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>628</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>630</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>633</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>636</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>638</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>640</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>643</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>646</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>649</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>651</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>653</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>655</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>657</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>660</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>663</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>666</v>
       </c>
